--- a/outputs/bst_flag/insertion_summarised.xlsx
+++ b/outputs/bst_flag/insertion_summarised.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.1e-06</v>
+        <v>2.9e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>76920</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8e-06</v>
+        <v>2e-06</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>153840</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9e-06</v>
+        <v>2.1e-06</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>230760</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8e-06</v>
+        <v>3.3e-06</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>307680</v>
       </c>
       <c r="B6" t="n">
-        <v>2e-06</v>
+        <v>2.6e-06</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>384600</v>
       </c>
       <c r="B7" t="n">
-        <v>2e-06</v>
+        <v>7.5e-06</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>461520</v>
       </c>
       <c r="B8" t="n">
-        <v>2.2e-06</v>
+        <v>2.9e-06</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>538440</v>
       </c>
       <c r="B9" t="n">
-        <v>3e-06</v>
+        <v>3.2e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>615360</v>
       </c>
       <c r="B10" t="n">
-        <v>2.2e-06</v>
+        <v>2.7e-06</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>692280</v>
       </c>
       <c r="B11" t="n">
-        <v>2.2e-06</v>
+        <v>3e-06</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>769200</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1e-06</v>
+        <v>3.2e-06</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>846120</v>
       </c>
       <c r="B13" t="n">
-        <v>2.2e-06</v>
+        <v>3.1e-06</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>923040</v>
       </c>
       <c r="B14" t="n">
-        <v>2.1e-06</v>
+        <v>2.3e-06</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>999960</v>
       </c>
       <c r="B15" t="n">
-        <v>2e-06</v>
+        <v>3.2e-06</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>999990</v>
       </c>
       <c r="B16" t="n">
-        <v>2.1e-06</v>
+        <v>3.3e-06</v>
       </c>
     </row>
   </sheetData>
